--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>Over Time</t>
+  </si>
+  <si>
+    <t>Emp_Name</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w2</t>
   </si>
 </sst>
 </file>
@@ -69,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -87,6 +99,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,136 +397,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
         <v>42505</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
       <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
         <v>42506</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
       <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
         <v>7.3</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>42507</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>8.4</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
       <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
         <v>7.2</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
         <v>42508</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>8.1</v>
       </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
       <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
         <v>7.5</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>42509</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
       <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>42510</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
       <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
         <v>7.4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -36,13 +36,40 @@
     <t>Emp_Name</t>
   </si>
   <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>w3</t>
-  </si>
-  <si>
-    <t>w2</t>
+    <t>Tr002</t>
+  </si>
+  <si>
+    <t>Tr003</t>
+  </si>
+  <si>
+    <t>Tr004</t>
+  </si>
+  <si>
+    <t>Tr005</t>
+  </si>
+  <si>
+    <t>Tr006</t>
+  </si>
+  <si>
+    <t>Tr007</t>
+  </si>
+  <si>
+    <t>Tr008</t>
+  </si>
+  <si>
+    <t>Tr009</t>
+  </si>
+  <si>
+    <t>Tr010</t>
+  </si>
+  <si>
+    <t>Tr011</t>
+  </si>
+  <si>
+    <t>Tr012</t>
+  </si>
+  <si>
+    <t>Tr013</t>
   </si>
 </sst>
 </file>
@@ -81,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -101,6 +128,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -397,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -432,11 +462,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>42505</v>
+        <v>42506</v>
       </c>
       <c r="C2" s="2">
         <v>8</v>
@@ -456,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>42506</v>
+        <v>42507</v>
       </c>
       <c r="C3" s="2">
         <v>8.3000000000000007</v>
@@ -472,11 +502,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8">
-        <v>3</v>
+      <c r="A4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>42507</v>
+        <v>42508</v>
       </c>
       <c r="C4" s="2">
         <v>8.4</v>
@@ -493,10 +523,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>42508</v>
+        <v>42509</v>
       </c>
       <c r="C5" s="2">
         <v>8.1</v>
@@ -512,11 +542,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
-        <v>4</v>
+      <c r="A6" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>42509</v>
+        <v>42510</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -532,11 +562,11 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8">
-        <v>5</v>
+      <c r="A7" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>42510</v>
+        <v>42511</v>
       </c>
       <c r="C7" s="2">
         <v>8.1999999999999993</v>
@@ -548,6 +578,126 @@
         <v>7.4</v>
       </c>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42506</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42507</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42508</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42509</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42510</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42511</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -698,6 +698,26 @@
         <v>7.4</v>
       </c>
       <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42514</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lms\Team-IGNIS\view\site\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="21972" windowHeight="5808"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="21975" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -70,16 +75,19 @@
   </si>
   <si>
     <t>Tr013</t>
+  </si>
+  <si>
+    <t>Tr001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1045B]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +147,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -185,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +233,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +285,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,22 +478,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -461,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -481,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -501,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -521,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -541,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -561,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -581,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -601,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -621,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -641,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -661,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -681,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -701,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
@@ -718,6 +770,26 @@
         <v>8</v>
       </c>
       <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>42694</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -728,24 +800,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +790,26 @@
         <v>10</v>
       </c>
       <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>42694</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lms\Team-IGNIS\view\site\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="21975" windowHeight="5805"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="21972" windowHeight="5808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -75,19 +70,16 @@
   </si>
   <si>
     <t>Tr013</t>
-  </si>
-  <si>
-    <t>Tr001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1045B]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,14 +139,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,27 +217,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,24 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,22 +426,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -513,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -533,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -553,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -573,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -593,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -613,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -633,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -653,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -673,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -693,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -713,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -733,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -753,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
@@ -773,12 +721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4">
-        <v>42694</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42509</v>
       </c>
       <c r="C15" s="2">
         <v>8.1</v>
@@ -786,31 +734,231 @@
       <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
-        <v>10</v>
+      <c r="E15" s="2">
+        <v>7.5</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4">
-        <v>42694</v>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42509</v>
       </c>
       <c r="C16" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42509</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42509</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42509</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42509</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42509</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <v>42701</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4">
+        <v>42702</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4">
+        <v>42703</v>
+      </c>
+      <c r="C24" s="2">
         <v>8.15</v>
       </c>
-      <c r="D16" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E16" s="1">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
+        <v>42704</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <v>42705</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8.35</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -820,24 +968,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Team-IGNIS\view\site\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="21972" windowHeight="5808"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="21975" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -75,11 +80,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1045B]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +144,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -185,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +230,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,22 +441,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -461,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -481,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -501,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -521,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -541,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -561,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -581,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -601,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -621,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -641,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -661,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -681,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -701,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
@@ -721,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -741,225 +756,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C18" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4">
-        <v>42701</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5.15</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7.55</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4">
-        <v>42702</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5.05</v>
-      </c>
-      <c r="E23" s="1">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4">
-        <v>42703</v>
-      </c>
-      <c r="C24" s="2">
-        <v>8.15</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7.45</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4">
-        <v>42704</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="E25" s="1">
-        <v>7.45</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4">
-        <v>42705</v>
-      </c>
-      <c r="C26" s="2">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2">
-        <v>5.35</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8.35</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.35</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,24 +841,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lms\Team-IGNIS\view\site\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="21972" windowHeight="5808"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="21975" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -52,12 +57,6 @@
   </si>
   <si>
     <t>Tr007</t>
-  </si>
-  <si>
-    <t>Tr008</t>
-  </si>
-  <si>
-    <t>Tr009</t>
   </si>
   <si>
     <t>Tr010</t>
@@ -75,11 +74,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1045B]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +138,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -185,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +224,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +276,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,22 +469,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -461,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -481,7 +525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -501,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -521,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -541,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -561,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -581,385 +625,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>42506</v>
+        <v>42508</v>
       </c>
       <c r="C8" s="2">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>42507</v>
+        <v>42509</v>
       </c>
       <c r="C9" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>42508</v>
+        <v>42510</v>
       </c>
       <c r="C10" s="2">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>42509</v>
+        <v>42511</v>
       </c>
       <c r="C11" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>42510</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>42511</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3">
-        <v>42514</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C18" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3">
-        <v>42509</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4">
-        <v>42701</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5.15</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7.55</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4">
-        <v>42702</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5.05</v>
-      </c>
-      <c r="E23" s="1">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4">
-        <v>42703</v>
-      </c>
-      <c r="C24" s="2">
-        <v>8.15</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7.45</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4">
-        <v>42704</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="E25" s="1">
-        <v>7.45</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4">
-        <v>42705</v>
-      </c>
-      <c r="C26" s="2">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2">
-        <v>5.35</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8.35</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.35</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,24 +790,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lms\Team-IGNIS\view\site\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="21975" windowHeight="5805"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="21972" windowHeight="5808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -63,22 +58,16 @@
   </si>
   <si>
     <t>Tr011</t>
-  </si>
-  <si>
-    <t>Tr012</t>
-  </si>
-  <si>
-    <t>Tr013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1045B]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -117,12 +106,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -131,6 +114,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,27 +210,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,24 +244,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,44 +419,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
@@ -525,8 +475,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
@@ -545,8 +495,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
@@ -565,8 +515,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
@@ -585,8 +535,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
@@ -605,8 +555,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
@@ -625,8 +575,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
@@ -645,8 +595,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
@@ -665,120 +615,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>42510</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3">
-        <v>42511</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
@@ -790,24 +716,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Team-IGNIS\view\site\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="21972" windowHeight="5808"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -58,16 +63,37 @@
   </si>
   <si>
     <t>Tr011</t>
+  </si>
+  <si>
+    <t>Tr012</t>
+  </si>
+  <si>
+    <t>Tr013</t>
+  </si>
+  <si>
+    <t>Tr014</t>
+  </si>
+  <si>
+    <t>Tr016</t>
+  </si>
+  <si>
+    <t>Tr020</t>
+  </si>
+  <si>
+    <t>Tr021</t>
+  </si>
+  <si>
+    <t>Tr022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1045B]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,9 +236,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,14 +447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="4" customWidth="1"/>
@@ -435,7 +463,7 @@
     <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -455,138 +483,144 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>42506</v>
+        <v>42751</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <f>(E2-8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>42507</v>
+        <v>42751</v>
       </c>
       <c r="C3" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.31</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>5.16</v>
       </c>
       <c r="E3" s="2">
-        <v>7.3</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <f t="shared" ref="F3:F16" si="0">(E3-8)</f>
+        <v>0.28999999999999915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>42508</v>
+        <v>42751</v>
       </c>
       <c r="C4" s="2">
-        <v>8.4</v>
+        <v>8.44</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>5.22</v>
       </c>
       <c r="E4" s="2">
-        <v>7.2</v>
+        <v>8.42</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>0.41999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>42509</v>
+        <v>42751</v>
       </c>
       <c r="C5" s="2">
-        <v>8.1</v>
+        <v>8.15</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E5" s="2">
-        <v>7.5</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>42510</v>
+        <v>42751</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>42511</v>
+        <v>42751</v>
       </c>
       <c r="C7" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>5.14</v>
       </c>
       <c r="E7" s="2">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>42508</v>
+        <v>42751</v>
       </c>
       <c r="C8" s="2">
-        <v>8.4</v>
+        <v>7.42</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>5.44</v>
       </c>
       <c r="E8" s="2">
         <v>7.2</v>
@@ -595,15 +629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>42509</v>
+        <v>42751</v>
       </c>
       <c r="C9" s="2">
-        <v>8.1</v>
+        <v>7.54</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -615,99 +649,181 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42751</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.46</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.08</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42751</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38000000000000078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42751</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42751</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.42</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42751</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42751</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5.24</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42751</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,24 +832,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/view/site/testing.xlsx
+++ b/view/site/testing.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Team-IGNIS\view\site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lms\Team-IGNIS\view\site\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="21972" windowHeight="5808"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="21975" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Tr016</t>
-  </si>
-  <si>
-    <t>Tr020</t>
   </si>
   <si>
     <t>Tr021</t>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1045B]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -448,22 +445,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -483,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -504,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -521,11 +518,11 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F16" si="0">(E3-8)</f>
+        <f t="shared" ref="F3:F15" si="0">(E3-8)</f>
         <v>0.28999999999999915</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -546,7 +543,7 @@
         <v>0.41999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -567,7 +564,7 @@
         <v>0.44999999999999929</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -588,7 +585,7 @@
         <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -609,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -629,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -649,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -670,7 +667,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -691,7 +688,7 @@
         <v>0.38000000000000078</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -712,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -733,97 +730,76 @@
         <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>42751</v>
       </c>
       <c r="C14" s="2">
-        <v>8.0500000000000007</v>
+        <v>7.56</v>
       </c>
       <c r="D14" s="2">
-        <v>5.3</v>
+        <v>5.24</v>
       </c>
       <c r="E14" s="2">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
         <v>42751</v>
       </c>
       <c r="C15" s="2">
-        <v>7.56</v>
+        <v>8.02</v>
       </c>
       <c r="D15" s="2">
-        <v>5.24</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3">
-        <v>42751</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.02</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -837,7 +813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -849,7 +825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
